--- a/app/static/excel/attendance__main.xlsx
+++ b/app/static/excel/attendance__main.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDesktop\Projects\KKL-Attendance-System\app\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N tharun\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3827838-49AA-477C-9FB9-5683CE9B9889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79269CB4-8F5A-4B81-81D5-7769E8B8DF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,6 +51,12 @@
     <t>-</t>
   </si>
   <si>
+    <t>08-02-2024 10:40</t>
+  </si>
+  <si>
+    <t>08-02-2024 18:00</t>
+  </si>
+  <si>
     <t>08-02-2024 20:00</t>
   </si>
   <si>
@@ -73,18 +79,15 @@
   </si>
   <si>
     <t>08-02-2024 06:16</t>
-  </si>
-  <si>
-    <t>08-02-2024 1:00</t>
-  </si>
-  <si>
-    <t>08-02-2024 08:40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,7 +185,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -577,7 +580,7 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="262" zoomScaleNormal="262" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A10" sqref="A10:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,13 +608,13 @@
         <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -622,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -636,10 +639,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -664,7 +667,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -678,7 +681,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
@@ -692,10 +695,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -707,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
